--- a/Documents/SneakR Manuális Tesztelés.xlsx
+++ b/Documents/SneakR Manuális Tesztelés.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01\Documents\GitHub\sneakR\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4D4350-D1FC-4CB9-A0D9-EF88BF697DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D041D-6561-49AF-B966-A3A6A0F6C140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="386">
   <si>
     <t>Teszt eset azonosító</t>
   </si>
@@ -99,18 +99,6 @@
     <t>A rendszer hibaüzenetet jelenít meg, ami jelzi, hogy az email cím már foglalt. A regisztráció sikertelen.</t>
   </si>
   <si>
-    <t>Sikertelen regisztráció - Jelszó eltérés</t>
-  </si>
-  <si>
-    <t>Annak ellenőrzése, hogy a rendszer hibaüzenetet ad, ha a jelszó és a jelszó megerősítése mezők nem egyeznek.</t>
-  </si>
-  <si>
-    <t>A rendszer hibaüzenetet jelenít meg, ami jelzi, hogy a jelszavak nem egyeznek. A regisztráció sikertelen.</t>
-  </si>
-  <si>
-    <t>1. Navigálj a főoldalra.  2. Kattints a "Regisztráció" gombra.  3. Tölts ki minden mezőt érvényesen, de a "Jelszó" és "Jelszó megerősítése" mezőkbe írj különböző értéket. 4. Kattints a "Regisztráció" gombra.</t>
-  </si>
-  <si>
     <t>TESTCASE_3</t>
   </si>
   <si>
@@ -180,40 +168,13 @@
     <t>Annak ellenőrzése, hogy sikeres bejelentkezés után megjelenik-e a felhasználónak a "select" oldal, és helyesen látszik a kettéosztott oldal.</t>
   </si>
   <si>
-    <t>1. Hajts végre egy sikeres bejelentkezést (lásd TESTCASE_1).</t>
-  </si>
-  <si>
     <t>A bejelentkezés utáni oldalon a képernyő vizuálisan ketté van osztva. A bal oldalon a "Webshop" rész látható, a jobb oldalon a "Resell" rész.</t>
   </si>
   <si>
     <t>TESTCASE_9</t>
   </si>
   <si>
-    <t>Webshop szekció azonosítása</t>
-  </si>
-  <si>
-    <t>Annak ellenőrzése, hogy a bal oldali szekció egyértelműen a webshopként van azonosítva.</t>
-  </si>
-  <si>
-    <t>1. Hajts végre egy sikeres bejelentkezést (lásd TESTCASE_1). 2. Vizsgáld meg a képernyő bal oldalát.</t>
-  </si>
-  <si>
-    <t>A bal oldali részen egyértelmű cím jelzi, hogy ez a "Webshop".</t>
-  </si>
-  <si>
     <t>TESTCASE_10</t>
-  </si>
-  <si>
-    <t>Használt cipő szekció azonosítása</t>
-  </si>
-  <si>
-    <t>Annak ellenőrzése, hogy a jobb oldali szekció egyértelműen a Resell-ként van azonosítva.</t>
-  </si>
-  <si>
-    <t>1. Hajts végre egy sikeres bejelentkezést (lásd TESTCASE_1).  2. Vizsgáld meg a képernyő jobb oldalát.</t>
-  </si>
-  <si>
-    <t>A jobb oldali részen egyértelmű cím jelzi, hogy ez a "Resell".</t>
   </si>
   <si>
     <t>TESTCASE_11</t>
@@ -641,12 +602,622 @@
   <si>
     <t>Az 'Eladás most' gombra kattintva sikeresen átkerültem a termék feltöltési oldalra.</t>
   </si>
+  <si>
+    <t>Böngésző</t>
+  </si>
+  <si>
+    <t>Teszt dátuma</t>
+  </si>
+  <si>
+    <t>Chrome (135.0.7049.96)</t>
+  </si>
+  <si>
+    <t>2024.9.02.</t>
+  </si>
+  <si>
+    <t>2024.9.04.</t>
+  </si>
+  <si>
+    <t>2024.9.12.</t>
+  </si>
+  <si>
+    <t>2024.9.13.</t>
+  </si>
+  <si>
+    <t>2024.9.24.</t>
+  </si>
+  <si>
+    <t>2024.10.07.</t>
+  </si>
+  <si>
+    <t>2024.10.08.</t>
+  </si>
+  <si>
+    <t>2024.10.12.</t>
+  </si>
+  <si>
+    <t>2024.10.16.</t>
+  </si>
+  <si>
+    <t>2024.10.26.</t>
+  </si>
+  <si>
+    <t>2024.11.10.</t>
+  </si>
+  <si>
+    <t>2024.11.14.</t>
+  </si>
+  <si>
+    <t>2024.11.20.</t>
+  </si>
+  <si>
+    <t>2024.11.24.</t>
+  </si>
+  <si>
+    <t>2024.12.01.</t>
+  </si>
+  <si>
+    <t>2024.12.10.</t>
+  </si>
+  <si>
+    <t>2024.12.15.</t>
+  </si>
+  <si>
+    <t>2024.12.20.</t>
+  </si>
+  <si>
+    <t>2025.01.06.</t>
+  </si>
+  <si>
+    <t>2025.01.12.</t>
+  </si>
+  <si>
+    <t>2025.01.24.</t>
+  </si>
+  <si>
+    <t>TESTCASE_37</t>
+  </si>
+  <si>
+    <t>TESTCASE_38</t>
+  </si>
+  <si>
+    <t>TESTCASE_39</t>
+  </si>
+  <si>
+    <t>TESTCASE_40</t>
+  </si>
+  <si>
+    <t>TESTCASE_41</t>
+  </si>
+  <si>
+    <t>TESTCASE_42</t>
+  </si>
+  <si>
+    <t>TESTCASE_43</t>
+  </si>
+  <si>
+    <t>TESTCASE_44</t>
+  </si>
+  <si>
+    <t>TESTCASE_45</t>
+  </si>
+  <si>
+    <t>TESTCASE_46</t>
+  </si>
+  <si>
+    <t>TESTCASE_47</t>
+  </si>
+  <si>
+    <t>TESTCASE_48</t>
+  </si>
+  <si>
+    <t>TESTCASE_49</t>
+  </si>
+  <si>
+    <t>TESTCASE_50</t>
+  </si>
+  <si>
+    <t>2025.01.30.</t>
+  </si>
+  <si>
+    <t>2025.02.02.</t>
+  </si>
+  <si>
+    <t>2025.02.06.</t>
+  </si>
+  <si>
+    <t>2025.02.10.</t>
+  </si>
+  <si>
+    <t>2025.02.13.</t>
+  </si>
+  <si>
+    <t>Kép hiányának validálása (Termék Eladása oldal)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "Termék Eladása" oldalon a felhasználó megkapja-e a várt hibaüzenetet ("Érvényes képlink megadása kötelező!"), amennyiben nem ad meg képet (vagy képlinket), és megpróbálja elmenteni vagy továbbküldeni az űrlapot.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj a "Termék Eladása" oldalra. 2. Azonosítsd a termék képének hozzáadására szolgáló mechanizmust. 3. Tölts ki minden *egyéb* kötelező mezőt az űrlapon (pl. terméknév, kategória, ár stb.), hogy a mentési kísérlet érvényes legyen ezek szempontjából. 4. **Szándékosan NE adj hozzá képet:** hagyd üresen a képlink mezőt, vagy ne tölts fel fájlt a fájlfeltöltővel. 5. Keresd meg az űrlap elküldésére szolgáló gombot. 6. Kattints erre a gombra. 7. Figyeld meg az űrlapon megjelenő hibaüzeneteket.</t>
+  </si>
+  <si>
+    <t>1. Az űrlap elküldése sikertelen; a felhasználó nem lép tovább a folyamatban. 2. Jól látható helyen megjelenik egy hibaüzenet, ami a hiányzó képre utal. 3. A megjelenő hibaüzenet **pontos szövege**: "Érvényes képlink megadása kötelező!"</t>
+  </si>
+  <si>
+    <t>A Mentés gombra kattintva a kép mező alatt megjelent a piros hibaüzenet, pontosan a várt szöveggel.</t>
+  </si>
+  <si>
+    <t>Sikeres termékfeltöltés visszajelzése (Modal)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "Termék Eladása" oldalon az összes kötelező adat (beleértve a képet is) helyes kitöltése után a "Feltöltés" gombra kattintva megjelenik-e egy felugró modal ablak a "Sikeres feltöltés!" üzenettel.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj a "Termék Eladása" oldalra. 2. Töltsd ki az űrlap *összes* mezőjét valósághű és érvényes tesztadatokkal. 3. Adj hozzá egy érvényes termékképet a (link beillesztés). 4. Győződj meg róla, hogy minden kötelező adat meg van adva, és nincsenek látható hibaüzenetek. 5. Keresd meg és azonosítsd a "Feltöltés" gombot. 6. Kattints a "Feltöltés" gombra. 7. Figyeld a képernyőn megjelenő visszajelzést.</t>
+  </si>
+  <si>
+    <t>1. Az űrlap adatai sikeresen feldolgozásra és mentésre kerülnek az adatbázisban. 2. A "Feltöltés" gombra kattintás után megjelenik egy felugró modal ablak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minden adat kitöltése és a Feltöltés gombra kattintás után megjelent a modal 'Sikeres feltöltés!' szöveggel. </t>
+  </si>
+  <si>
+    <t>Navigálás a Resell profil oldalra (ikon)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell" oldalon tartózkodva a jobb felső sarokban lévő profil ikonra kattintva a felhasználó a saját, resell tevékenységeihez kapcsolódó profil oldalára (az ún. "resell-user" oldalra) kerül-e átirányításra.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára). 2. *(Előfeltétel)* Győződj meg róla, hogy be vagy jelentkezve a felhasználói fiókodba. 3. Keresd meg és azonosítsd a weboldal fejlécének jobb felső sarkában található profil ikont. 4. Kattints erre a profil ikonra.</t>
+  </si>
+  <si>
+    <t>1. Az ikonra kattintás után az alkalmazás sikeresen átirányítja a felhasználót a resell specifikus felhasználói profil oldalra ("resell-user" oldal).</t>
+  </si>
+  <si>
+    <t>A profil ikonra kattintva sikeresen a /resell/user oldalra jutottam, ahol az eladásaimat láttam.</t>
+  </si>
+  <si>
+    <t>Mini kosár megnyitása és navigálás a Resell kosár oldalra</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell" oldalon tartózkodva a jobb felső kosár ikonra kattintva megjelenik-e a mini kosár előnézet, és (2) az ebben az előnézetben található "Kosár Megtekintése" gomb a resell specifikus kosár oldalra (az ún. "resell-cart" oldalra) navigál-e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. Tegyél legalább egy terméket a kosárba. 3. Keresd meg a weboldal fejlécének jobb felső sarkában a kosár ikont. 4. Kattints a kosár ikonra. 5. Figyeld meg, hogy megjelenik-e a mini kosár előnézeti panel. 6. A mini kosárban keresd meg a "Kosár Megtekintése" feliratú gombot. 7. Kattints erre a "Kosár Megtekintése" gombra. </t>
+  </si>
+  <si>
+    <t>1. Az 4. lépésben a kosár ikonra kattintva sikeresen megjelenik a mini kosár előnézet. 2. A 7. lépésben a "Kosár Megtekintése" gombra kattintva az alkalmazás sikeresen átirányítja a felhasználót a **resell specifikus** teljes kosár oldalra.</t>
+  </si>
+  <si>
+    <t>A kosár ikonra kattintva megnyílt a mini kosár. A Kosár Megtekintése gomb a resell-cart oldalra navigált sikeresen.</t>
+  </si>
+  <si>
+    <t>Hamburger menü megnyitása (Resell oldalról)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell" oldalon tartózkodva a jobb felső sarokban található hamburger ikonra (három vonal) kattintva kinyílik-e a navigációs menü, és megjelennek-e benne a menüpontok/opciók.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. Győződj meg róla, hogy a nézet olyan, amelyben a hamburger ikon (☰) látható a jobb felső sarokban. 3. Keresd meg és azonosítsd a jobb felső sarokban a három vízszintes vonalból álló ikont. 4. Kattints erre a hamburger ikonra.</t>
+  </si>
+  <si>
+    <t>1. Az ikonra kattintva a navigációs menü (hamburger menü) sikeresen megjelenik. 2. A megnyílt menüben láthatóak a navigációs opciók (menüpontok)</t>
+  </si>
+  <si>
+    <t>A resell oldalon is rendben kinyílt a hamburger menü az ikonra kattintva, a szokásos menüpontokkal.</t>
+  </si>
+  <si>
+    <t>Szűrt navigálás 'Férfi' termékekre (Resell, Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menü "Férfi" menüpontjára kattintva a felhasználó a resell termékeket listázó oldalra ("resell-products") jut-e, és hogy ez az oldal előre szűrve van-e kizárólag a férfi kategóriájú termékekre.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt. 3. Keresd meg a megnyitott menüben a "Férfi" feliratú menüpontot. 4. Kattints a "Férfi" menüpontra. 5. Figyeld meg az átirányítás után betöltődő oldalt, annak URL-jét és a listázott termékeket.</t>
+  </si>
+  <si>
+    <t>1. A "Férfi" menüpontra kattintás után az alkalmazás sikeresen átirányít a resell termékeket listázó oldalra. 2. A betöltött oldalon a terméklistában **kizárólag férfi** cipők</t>
+  </si>
+  <si>
+    <t>Átirányított a /resell-products?nem=ferfi oldalra, ahol csak férfi cipők voltak listázva.</t>
+  </si>
+  <si>
+    <t>Szűrt navigálás 'Női' termékekre (Resell, Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menü "Női" menüpontjára kattintva a felhasználó a resell termékeket listázó oldalra ("resell-products") jut-e, és hogy ez az oldal előre szűrve van-e kizárólag a női kategóriájú termékekre.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt. 3. Keresd meg a megnyitott menüben a "Női" feliratú menüpontot/linket. 4. Kattints a "Női" menüpontra. 5. Figyeld meg az átirányítás után betöltődő oldalt, annak URL-jét és a listázott termékeket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A "Női" menüpontra kattintás után az alkalmazás sikeresen átirányít a resell termékeket listázó oldalra (a leírás alapján a "resell-products" oldalra). 2. A betöltött oldalon a terméklistában **kizárólag női** cipők (vagy az adott kategóriába sorolt termékek) jelennek meg. </t>
+  </si>
+  <si>
+    <t>Átirányított a /resell-products?cat=noi oldalra, ahol csak női cipők voltak listázva.</t>
+  </si>
+  <si>
+    <t>Szűrt navigálás 'Új' állapotú termékekre (Resell, Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menüben a harmadik fő menüpont (pl. "Állapot" vagy hasonló) alatt található "Új" almenüpontra kattintva a felhasználó a resell termékeket listázó oldalra ("resell-products") jut-e, és hogy ez az oldal előre szűrve van-e kizárólag az "Új" állapotú termékekre.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt . 3. A menüben azonosítsd be a "harmadik" fő menüpontot. Kattints rá, hogy lenyíljon az almenüje. 4. A lenyílt almenüben keresd meg és azonosítsd az "Új" feliratú menüpontot. 5. Kattints az "Új" menüpontra. 6. Figyeld meg az átirányítás után betöltődő oldalt, annak URL-jét és a listázott termékeket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Az "Új" menüpontra kattintás után az alkalmazás sikeresen átirányít a resell termékeket listázó oldalra. 2. A böngésző címsorában az URL megváltozik. 3. A betöltött oldalon a terméklistában **kizárólag "Új"** állapotúként megjelölt termékek (cipők) jelennek meg. </t>
+  </si>
+  <si>
+    <t>Az Állapot -&gt; Új menüpontra kattintva a /resell-products?condition=new oldalra navigált, csak új cipők voltak listázva.</t>
+  </si>
+  <si>
+    <t>Szűrt navigálás 'Használt' állapotú termékekre (Resell, Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menüben a harmadik fő menüpont ("Állapot") alatt található "Használt" almenüpontra kattintva a felhasználó a resell termékeket listázó oldalra ("resell-products") jut-e, és hogy ez az oldal előre szűrve van-e kizárólag a "Használt" állapotú termékekre.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt. 3. A menüben azonosítsd be a "harmadik" fő menüpontot (pl. "Állapot"), és kattints rá, hogy lenyíljon az almenüje. 4. A lenyílt almenüben keresd meg és azonosítsd a "Használt" feliratú menüpontot. 5. Kattints a "Használt" menüpontra. 6. Figyeld meg az átirányítás után betöltődő oldalt, annak URL-jét és a listázott termékeket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A "Használt" menüpontra kattintás után az alkalmazás sikeresen átirányít a resell termékeket listázó oldalra (a leírás alapján a "resell-products" oldalra). 2. A böngésző címsorában az URL megváltozik. 3. A betöltött oldalon a terméklistában **kizárólag "Használt"** állapotúként megjelölt termékek (cipők) jelennek meg. 4. </t>
+  </si>
+  <si>
+    <t>Az Állapot -&gt; Használt menüpontra kattintva a /resell-products?condition=used oldalra navigált, csak használt cipők voltak listázva.</t>
+  </si>
+  <si>
+    <t>Szűrt navigálás 'Jordan' termékekre (Resell, Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menüben a "Márkák" (negyedik) fő menüpont alatt található "Jordan" almárka menüpontra kattintva a felhasználó a resell termékeket listázó oldalra ("resell-products") jut-e, és hogy ez az oldal előre szűrve van-e kizárólag a "Jordan" márkájú termékekre.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt. 3. A menüben azonosítsd be a "Márkák" (negyedik) fő menüpontot. Kattints rá, hogy lenyíljon az almenüje. 4. A lenyílt "Márkák" almenüben keresd meg és azonosítsd a "Jordan" feliratú menüpontot/linket. 5. Kattints a "Jordan" menüpontra. 6. Figyeld meg az átirányítás után betöltődő oldalt, annak URL-jét és a listázott termékeket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A "Jordan" menüpontra kattintás után az alkalmazás sikeresen átirányít a resell termékeket listázó oldalra (a leírás alapján a "resell-products" oldalra). 2. A böngésző címsorában az URL megváltozik. 3. A betöltött oldalon a terméklistában **kizárólag "Jordan"** márkájú termékek (cipők) jelennek meg. </t>
+  </si>
+  <si>
+    <t>A Márkák -&gt; Jordan menüpontra kattintva a /resell-products?brand=jordan oldalra navigált, csak Jordan cipők voltak listázva.</t>
+  </si>
+  <si>
+    <t>Szűrt navigálás 'Nike' termékekre (Resell, Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menüben a "Márkák" (negyedik) fő menüpont alatt található "Nike" almárka menüpontra kattintva a felhasználó a resell termékeket listázó oldalra ("resell-products") jut-e, és hogy ez az oldal előre szűrve van-e kizárólag a "Nike" márkájú termékekre.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt . 3. A menüben azonosítsd be a "Márkák" (negyedik) fő menüpontot. Kattints rá, hogy lenyíljon az almenüje. 4. A  lenyílt "Márkák" almenüben keresd meg és azonosítsd a "Nike" feliratú menüpontot/linket. 5. Kattints a "Nike" menüpontra. 6. Figyeld meg az átirányítás után betöltődő oldalt, annak URL-jét és a listázott termékeket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A "Nike" menüpontra kattintás után az alkalmazás sikeresen átirányít a resell termékeket listázó oldalra (a leírás alapján a "resell-products" oldalra). 2. A böngésző címsorában az URL megváltozik. 3. A betöltött oldalon a terméklistában **kizárólag "Nike"** márkájú termékek (cipők) jelennek meg. </t>
+  </si>
+  <si>
+    <t>A Márkák -&gt; Nike menüpontra kattintva a /resell-products?brand=nike oldalra navigált, csak Nike cipők voltak listázva.</t>
+  </si>
+  <si>
+    <t>Szűrt navigálás 'Adidas' termékekre (Resell, Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menüben a "Márkák" (negyedik) fő menüpont alatt található "Adidas" almárka menüpontra kattintva a felhasználó a resell termékeket listázó oldalra ("resell-products") jut-e, és hogy ez az oldal előre szűrve van-e kizárólag az "Adidas" márkájú termékekre.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt . 3. A menüben azonosítsd be a "Márkák" (negyedik) fő menüpontot. Kattints rá, hogy  lenyíljon az almenüje. 4. A lenyílt "Márkák" almenüben keresd meg és azonosítsd az "Adidas" feliratú menüpontot/linket. 5. Kattints az "Adidas" menüpontra. 6. Figyeld meg az átirányítás után betöltődő oldalt, annak URL-jét és a listázott termékeket.</t>
+  </si>
+  <si>
+    <t>1. Az "Adidas" menüpontra kattintás után az alkalmazás sikeresen átirányít a resell termékeket listázó oldalra (a leírás alapján a "resell-products" oldalra). 2. A böngésző címsorában az URL megváltozik. 3. A betöltött oldalon a terméklistában **kizárólag "Adidas"** márkájú termékek (cipők) jelennek meg.</t>
+  </si>
+  <si>
+    <t>A Márkák -&gt; Adidas menüpontra kattintva a /resell-products?brand=adidas oldalra navigált, csak Adidas cipők voltak listázva.</t>
+  </si>
+  <si>
+    <t>Közvetlen navigálás 'About' oldalra 'Info' menüpontból (Resell)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a (resell oldalon megnyitott) hamburger menü "Info" (ötödik) menüpontjára kattintva a felhasználó közvetlenül az "about" (Rólunk) oldalra kerül-e átirányításra (és nem almenü nyílik meg).</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. *(Előfeltétel)* Nyisd meg a jobb felső hamburger menüt. 3. Keresd meg a megnyitott menüben az "Info" (ötödik) feliratú menüpontot/linket. 4. Kattints erre az "Info" menüpontra. 5. Figyeld meg az eredményt: történik-e oldalátirányítás, vagy egy almenü nyílik meg.</t>
+  </si>
+  <si>
+    <t>Az Info linkre kattintva közvetlenül a /about oldalra navigált.</t>
+  </si>
+  <si>
+    <t>1. Az "Info" menüpontra kattintva az alkalmazás **közvetlenül** átirányít a "Rólunk" (about) információs oldalra. 2. A böngésző címsorában az oldal URL címe megváltozik a "Rólunk" oldal elérési útjára (..../about,...). 3. Az újonnan betöltött oldal tartalma a cégről/webshopról szóló információkat jeleníti meg.</t>
+  </si>
+  <si>
+    <t>Resell hirdetés végleges törlésének ellenőrzése</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a felhasználó "Resell-user" profil oldalán, az egyik aktív hirdetésének törlését követően, az oldal böngészőben történő frissítése után a törölt hirdetés már nem jelenik meg a listában.</t>
+  </si>
+  <si>
+    <t>Sikertelen</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Jelentkezz be, és győződj meg róla, hogy rendelkezel legalább egy aktív resell hirdetéssel (pl. egy korábban feltöltött cipő. 2. *(Előfeltétel)* Navigálj a saját "Resell-user" profil oldaladra (a jobb felső profil ikonon keresztül a resell oldalról. 3. Keresd meg a "Jelenlegi hirdetések" szekciót az oldalon. 4. Válassz ki egyet a listázott hirdetéseid közül, amelyet törölni szeretnél. 5. Keresd meg és kattints a kiválasztott hirdetéshez tartozó "Törlés" ikonra vagy gombra. 6. Figyeld meg a felhasználói felület válaszát (a hirdetés eltűnik a listából). 7. **Fontos lépés:** Frissítsd az egész oldalt a böngésződben (használd az F5 billentyűt vagy a böngésző frissítés/újratöltés gombját). 9. Az oldal újratöltődése után ismét keresd meg a "Jelenlegi hirdetések" szekciót. 10. Ellenőrizd, hogy az 5. lépésben törölt hirdetés továbbra sem látható-e a listában.</t>
+  </si>
+  <si>
+    <t>1. A törlési művelet sikeresen lezajlik. 2. Az oldal böngészőben történő frissítése (7. lépés) után, a "Jelenlegi hirdetések" listában a korábban törölt hirdetés **nem jelenik meg**. 3. A törlés tehát véglegesnek bizonyul. 4. Ha ez volt az utolsó aktív hirdetés, akkor a lista üresen jelenik meg.</t>
+  </si>
+  <si>
+    <t>A törlés után eltűnt a hirdetés, de az oldal frissítése után újra látható volt (HIBA!).</t>
+  </si>
+  <si>
+    <t>Kosárba helyezés ellenőrzése a Resell kosár oldalon</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell-products" terméklistázó oldalról kosárba helyezett termék (cipő) helyesen megjelenik-e a teljes, resell specifikus kosár oldalon ("resell-cart"), miután a "Kosár Megtekintése" gombjával odanavigáltunk.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj a resell-products oldalra. 2. Válassz ki egy konkrét cipőt a listázott resell termékek közül.  Kattints a kiválasztott cipőhöz tartozó "Kosárba" gombra. 3. Figyeld meg a felhasználói felület visszajelzését a kosárba helyezésről. 4. Kattints a weboldal fejlécében található fő kosár ikonra. 5. A megjelenő mini kosár előnézetben keresd meg és kattints a "Kosár Megtekintése" gombra.6. Figyeld meg az átirányítás után betöltődő oldalt. 7. Az (resell-cart) oldalon ellenőrizd, hogy a 2. lépésben kosárba helyezett cipő szerepel-e a listában.</t>
+  </si>
+  <si>
+    <t>1. A 2. lépésben a "Kosárba" gomb sikeresen hozzáadja a kiválasztott resell terméket a kosárhoz. 2. A 3. lépésben a kosár ikonon a jelvény száma eggyel nő.  3. A 5. lépésben a "Kosár Megtekintése" gomb sikeresen átirányít a **resell-cart** oldalra. 4. A 7. lépésben aresell-cartoldalon a kosár tételei között **megtalálható** a 2. lépésben hozzáadott cipő.</t>
+  </si>
+  <si>
+    <t>A resell-products oldalról hozzáadott cipő rendben megjelent a /resell-cart oldalon a helyes adatokkal.</t>
+  </si>
+  <si>
+    <t>Kötelező adatok hiányának validálása (Resell kosár)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell-cart" oldalról való továbblépési kísérlet meghiúsul-e, és megfelelő hibaüzenet jelennek-e meg, amennyiben a felhasználó nem tölti ki a kötelező adatokat</t>
+  </si>
+  <si>
+    <t>1. A továbblépés gombra kattintva a felhasználó **nem** tud továbblépni a következő oldalra. 2. A felhasználó a resell-cartoldalon marad, hogy pótolhassa a hiányzó adatokat.</t>
+  </si>
+  <si>
+    <t>A Tovább gombra kattintva az oldalon maradtunk.</t>
+  </si>
+  <si>
+    <t>Resell rendelés leadása és visszaigazolása (Modal)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell-cart" oldalon az összes szükséges adat helyes megadása után a "biztonságos fizetés" gombra kattintva a rendelés sikeresen rögzítésre kerül-e, megjelenik-e a "Sikeres megrendelés!" üzenetet tartalmazó modal ablak, és a rendelés később látható-e a felhasználó rendelési előzményei között.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj a resell-cartoldalra. Győződj meg róla, hogy van legalább egy termék a kosárban. 2. Azonosítsd az oldalon azokat az adatbekérő mezőket. 3. **Szándékosan NE tölts ki** egyet sem ezek közül a kötelező mezők közül. 4. Keresd meg az oldalon a továbblépést "Biztonságos fizetés". 5. Kattints erre a továbblépés gombra. 6. Figyeld meg a rendszer reakcióját.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj a resell-  cartoldalra úgy, hogy legyen benne legalább egy megvásárolható resell termék. 2. *(Előfeltétel)* Töltsd ki az oldalon kért összes kötelező adatot pontosan és érvényes formátumban.  3. Keresd meg és azonosítsd a "biztonságos fizetés" feliratú gombot. 4. Kattints a "biztonságos fizetés" gombra. 5. Figyeld a képernyőn megjelenő visszajelzést. 6. *(Ha megjelent)* Zárd be a modal ablakot, és figyeld meg, mi történik ezután (átirányítás). 7. *(Ellenőrzés)* Navigálj el a felhasználói fiókodhoz tartozó "Rendeléseim" vagy "Rendelési előzmények" oldalra. 8. Ellenőrizd, hogy a legutóbbi rendelések között szerepel-e az imént leadott resell rendelés.</t>
+  </si>
+  <si>
+    <t>1. A "biztonságos fizetés" gombra kattintás után a rendelés feldolgozása és rögzítése sikeresen megtörténik a háttérrendszerben. 2. **Megjelenik egy felugró modal ablak** a képernyőn. 3. A modal ablak tartalma: "Sikeres megrendelés!" 4. A modal ablak bezárható. 5. *(Adatbázisban)* Létrejön egy új rendelési rekord a megfelelő adatokkal (ezt közvetlenül nem látjuk, de a 7-8. lépés ezt ellenőrzi közvetve). 6. A "Rendeléseim" oldalon (8. lépés) **megjelenik az újonnan leadott rendelés**, a megfelelő termék(ek)kel, árral és státusszal.</t>
+  </si>
+  <si>
+    <t>A gombnyomás után megjelent a modal 'Sikeres megrendelés!' szöveggel. Bezárás után a profilomnál, az új rendelés legfelül szerepelt.</t>
+  </si>
+  <si>
+    <t>Admin panel elérése (admin felhasználóval)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a megadott adminisztrátori felhasználói névvel és jelszóval (admin@example.com:adminpass) történő sikeres bejelentkezés után, a http://localhost:4200/admin cím közvetlen beírásával elérhető-e az adminisztrációs felület.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a weboldal bejelentkezési oldalára. 2. Az email vagy felhasználónév mezőbe írd be: admin@example.com 3. A jelszó mezőbe írd be: adminpass 4. Kattints a "Bejelentkezés" gombra. 5. Ellenőrizd, hogy a bejelentkezés sikeres volt-e. Ezt jelezheti átirányítás egy főoldalra. 6. Ha a bejelentkezés sikeres volt, nyiss egy új böngészőfület vagy írd be a jelenlegi fül címsorába pontosan a következő URL-t: http://localhost:4200/admin 7. Nyomj Entert az URL betöltéséhez. 8. Figyeld meg az oldalt, ami betöltődik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Az admin felhasználó sikeresen bejelentkezik a 4. lépés után. 2. A 7. lépésben, a /admin URL-re navigálva, az **adminisztrációs panel** töltődik be. 3. Az oldalon adminisztratív funkciókra utaló elemek láthatók mint "Felhasználók". </t>
+  </si>
+  <si>
+    <t>Sikeres admin bejelentkezés után az /admin URL beírására betöltődött az admin felület.</t>
+  </si>
+  <si>
+    <t>TESTCASE_51</t>
+  </si>
+  <si>
+    <t>TESTCASE_52</t>
+  </si>
+  <si>
+    <t>TESTCASE_53</t>
+  </si>
+  <si>
+    <t>TESTCASE_54</t>
+  </si>
+  <si>
+    <t>TESTCASE_55</t>
+  </si>
+  <si>
+    <t>TESTCASE_56</t>
+  </si>
+  <si>
+    <t>Admin panel hozzáférés megtagadása (Normál felhasználó)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy egy normál (nem adminisztrátori) felhasználóval (john.doe@example.com:password123) bejelentkezve, majd aa /admin címre navigálva a rendszer helyesen megtagadja-e a hozzáférést, és  a "Hozzáférés megtagadva!" üzenetet jeleníti-e meg.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a weboldal bejelentkezési oldalára. 2. Az email vagy felhasználónév mezőbe írd be:john.doe@example.com 3. A jelszó mezőbe írd be:password123 4. Kattints a "Bejelentkezés"gombra. 5. Ellenőrizd, hogy a bejelentkezés sikeres volt-e. 6. Ha a bejelentkezés sikeres volt, a böngésző címsorába írd be pontosan a következő URL-t: http://localhost:4200/admin 7. Nyomj Entert az URL betöltéséhez. 8. Figyeld meg a megjelenő oldalt vagy üzenetet.</t>
+  </si>
+  <si>
+    <t>1. A normál felhasználó (john.doe@example.com) sikeresen bejelentkezik a 4. lépés után. 2. A 7. lépésben, a /admin-re navigálva, az adminisztrációs panel **NEM töltődik be**. 3. Ehelyett a felhasználó egy hibaüzenetet lát. 4. A **várt üzenet**: "Hozzáférés megtagadva!"</t>
+  </si>
+  <si>
+    <t>A normál felhasználóval bejelentkezve a /admin URL-re navigálva egy oldal jelent meg 'Hozzáférés megtagadva!' felirattal.</t>
+  </si>
+  <si>
+    <t>2025.02.18.</t>
+  </si>
+  <si>
+    <t>2025.02.22.</t>
+  </si>
+  <si>
+    <t>2025.02.28.</t>
+  </si>
+  <si>
+    <t>Shoe Controller hozzáférés megtagadása (Normál felhasználó)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy egy normál (nem adminisztrátori) felhasználóval (john.doe@example.com:password123) bejelentkezve, majd a /shoe-controller URL címre navigálva a rendszer helyesen megtagadja-e a hozzáférést, és a várt "Hozzáférés megtagadva!" üzenetet jeleníti-e meg.</t>
+  </si>
+  <si>
+    <t>Shoe Controller elérése (admin felhasználóval)</t>
+  </si>
+  <si>
+    <t>1. Navigálj a weboldal bejelentkezési oldalára. 2. Az email vagy felhasználónév mezőbe írd be:john.doe@example.com 3. A jelszó mezőbe írd be:password123 4. Kattints a "Bejelentkezés" gombra. 5. Ellenőrizd, hogy a bejelentkezés (normál felhasználóként) sikeres volt-e. 7. Ha a bejelentkezés sikeres volt, a böngésző címsorába írd be pontosan a következő URL-t: http://localhost:4200/shoe-controller 8. Nyomj Entert az URL betöltéséhez. 9. Figyeld meg a megjelenő oldalt vagy üzenetet.</t>
+  </si>
+  <si>
+    <t>1. A normál felhasználó (john.doe@example.com) sikeresen bejelentkezik a 4. lépés után. 2. A 7. lépésben, a /shoe-controllerURL-re navigálva, a cipők kezelésére szolgáló adminisztratív felület **NEM töltődik be**. 3. Ehelyett a felhasználó egy hibaüzenetet lát. 4. A **várt üzenet**: "Hozzáférés megtagadva!"</t>
+  </si>
+  <si>
+    <t>Normál felhasználóval bejelentkezve a /shoe-controller URL-re navigálva egy oldal jelent meg 'Hozzáférés megtagadva!' felirattal.</t>
+  </si>
+  <si>
+    <t>Felhasználó törlése (Admin panel)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy adminisztrátorként bejelentkezve az admin panel felhasználókezelő felületén sikeresen törölhető-e egy kiválasztott felhasználó, és hogy ez a törlés végleges-e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. *(Előfeltétel)* Jelentkezz be adminisztrátori felhasználóként (admin@example.com/adminpass). 2. *(Előfeltétel)* Navigálj az admin panelre (http://localhost:4200/admin). 3. A felhasználók listájában válassz ki egy **NEM adminisztrátori** felhasználót, akit törölni szeretnél (pl.john.doe@example.com). 4. Keresd meg a kiválasztott felhasználó sorában a "Törlés" funkciót. 5. Kattints a "Törlés" gombra. 6. *(Ellenőrzés 1)* Frissítsd a felhasználói listát tartalmazó oldalt (pl. F5 billentyű). Ellenőrizd, hogy a törölt felhasználó továbbra sem szerepel-e a listán. </t>
+  </si>
+  <si>
+    <t>1. A törlési folyamat az admin panelen sikeresen lezajlik . 2. Az oldal frissítése után a törölt felhasználó **nem látható** a felhasználók listájában. 3. A felhasználóhoz tartozó adat(ok) törlésre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A felhasználó törlése sikeres volt az admin panelen, frissítés után sem látszott. </t>
+  </si>
+  <si>
+    <t>Termék (cipő) törlése (Admin - Shoe Controller)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy adminisztrátorként bejelentkezve a "shoe-controller" (Cipők Kezelése) panelen sikeresen törölhető-e egy kiválasztott cipő, és hogy ez a törlés végleges-e (eltűnik az admin listából, és már nem jelenik meg a publikus webshop/resell felületen sem).</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Jelentkezz be adminisztrátori felhasználóként.
+2. *(Előfeltétel)* Navigálj a Cipők Kezelése panelre ahttp://localhost:4200/shoe-controllerURL cím beírásával.
+3. Az oldalon megjelenő cipők listájából válassz ki egyet, amelyet törölni szeretnél.
+4. Keresd meg a kiválasztott cipő sorában vagy adatlapján a "Törlés"  gombot.
+5. Kattints a "Törlés" gombra.
+6. Figyeld meg a felhasználói felület visszajelzését az admin panelen (pl. a cipő eltűnik a listából.
+7. *(Ellenőrzés 1: Admin UI)* Frissítsd a cipőket listázó oldalt az admin panelen. Ellenőrizd, hogy a törölt cipő továbbra sem szerepel-e a listában.
+8. *(Ellenőrzés 2: Publikus UI)* Nyiss egy új böngészőablakot, vagy navigálj el a publikus webshop/resell oldalra.</t>
+  </si>
+  <si>
+    <t>1. A törlési művelet sikeresen lezajlik az admin panelen. 2. Az admin panelen a cipőlista frissítése után a törölt cipő **már nem látható**. 3. A publikus webshop/resell felületen a törölt cipő **nem található meg** / nem érhető el. 4. (Implicit elvárás) A cipőhöz tartozó rekord törlésre  kerül az adatbázisban.</t>
+  </si>
+  <si>
+    <t>A törlés sikeres volt, a cipő eltűnt az admin listából frissítés után is, és a publikus oldalon sem találtam meg, illetve az adatbázisból is törlésre került.</t>
+  </si>
+  <si>
+    <t>Termék (cipő) adatainak módosítása (Admin)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy adminisztrátorként bejelentkezve a "shoe-controller" felületen sikeresen módosíthatók-e egy kiválasztott cipő adatai, és hogy ezek a módosítások véglegesek-e, megjelennek-e az admin listában és a publikus felületen is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. *(Előfeltétel)* Jelentkezz be adminisztrátori felhasználóként. 2. *(Előfeltétel)* Navigálj a Cipők Kezelése panelre ahttp://localhost:4200/shoe-controller URL cím beírásával. 3. A cipők listájából válassz ki egyet, amelyet módosítani szeretnél. 4. Keresd meg a kiválasztott cipő sorában a "Módosítás"  funkciót. 5. Kattints a "Módosítás" gombra. 6. A megnyíló szerkesztő űrlapon írd át a cipő árát. 7. Keresd meg és kattints a módosítások mentésére szolgáló gombra az űrlapon.  8. *(Ellenőrzés 1: Admin UI)* Navigálj vissza a cipők listájához az admin panelen, vagy frissítsd a listát (pl. F5). Ellenőrizd, hogy a listában a cipőnél már a 6. lépésben beállított, módosított adat(ok) szerepel(nek)-e. 9. *(Ellenőrzés 2: Publikus UI)* Nyiss egy másik böngészőfület, és navigálj el a publikus resell-products felületre. Keresd meg a 3. lépésben módosított cipőt. </t>
+  </si>
+  <si>
+    <t>1. A módosítások mentése sikeresen megtörténik az admin felületen (6. lépés). 2. Az admin panel cipőlistájában (frissítés után is) a terméknél a módosított adatok láthatók. 3. A publikus resell-products felületen a termék adatainál (ár) szintén a módosított érték jelenik meg. 4. (Implicit elvárás) A cipő adatai az adatbázisban a módosított értékekre frissülnek.</t>
+  </si>
+  <si>
+    <t>A cipő árának módosítása és mentése után az új ár megjelent az admin listában és a termék publikus oldalán is, illetve az adatábázisban is változtott az adat.</t>
+  </si>
+  <si>
+    <t>Új cipő űrlap validálása üresen hagyva (Admin)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy az admin panel "Cipő feltöltése" funkciójánál, ha a felhasználó üresen hagyja az összes mezőt és megpróbálja elmenteni az űrlapot, a rendszer helyesen megakadályozza-e a mentést.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Jelentkezz be adminisztrátori felhasználóként. 2. *(Előfeltétel)* Navigálj a Cipők Kezelése panelre a http://localhost:4200/shoe-controller URL cím beírásával. 3. Keresd meg és kattints a "Cipő feltöltése" gombra, hogy megnyíljon az új termék létrehozására szolgáló űrlap. 4. A megjelenő űrlapon **ne írj be semmilyen adatot**, hagyd az összes mezőt érintetlenül, üresen. 5. Keresd meg az űrlapon a Feltöltés gombot és kattints rá.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Az űrlap mentése **sikertelen**; nem jön létre új cipő rekord. 2. A felhasználó az új cipő létrehozási űrlapján marad. </t>
+  </si>
+  <si>
+    <t>Mentés gombra az ürlap nem mentődött.</t>
+  </si>
+  <si>
+    <t>Új cipő sikeres létrehozása (Admin)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy adminisztrátorként a "shoe-controller"  panel "Cipő feltöltése" funkciójával, az összes szükséges adat helyes megadása után sikeresen létrehozható-e egy új cipő, a rendszer ad-e "Sikeres feltöltés!" visszajelzést, és a létrehozott cipő megjelenik-e az adminisztrátori listában (és implicit módon létrejön-e az adatbázisban).</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Jelentkezz be adminisztrátori felhasználóként. 2. *(Előfeltétel)* Navigálj a Cipők Kezelése panelre a http://localhost:4200/shoe-controller URL cím beírásával. 3. Kattints a "Cipő feltöltése" gombra. 4. A megjelenő új cipő létrehozási űrlapon töltsd ki az összes mezőt, helyes, érvényes és valósághű adatokkal. Ügyelj a megfelelő formátumokra. Adj meg egy képet is. 5. Keresd meg és kattints az űrlap feltöltését végző gombra "Feltöltés"). 6. Navigálj vissza a cipőket listázó oldalra az admin panelen, vagy frissítsd a listát. 8. Ellenőrizd, hogy a 4. lépésben létrehozott új cipő szerepel-e a listában. 9. Lépj át a publikus webshop felületre, és ellenőrizd, hogy az új cipő ott is megjelent-e, elérhetővé vált-e a vásárlók számára.</t>
+  </si>
+  <si>
+    <t>1. Az űrlap elküldése sikeres, hibaüzenet nélkül. 2. Megjelenik egy **sikerüzenet**, amelynek szöveg "Sikeres feltöltés!". 3. Az admin panel cipőlistájában, akár frissítés után is, **megjelenik az újonnan hozzáadott cipő** a megadott adatokkal. 4. (Implicit elvárás) Az adatbázisban létrejön egy új rekord az új cipő adataival. 5.Az új cipő a publikus felületen is megjelenik és elérhető.</t>
+  </si>
+  <si>
+    <t>A Feltöltés gombra kattintva megjelent a 'Sikeres feltöltés!' üzenet. Az új cipő megjelent az admin listában és a publikus oldalon is, illetve az adatábzisban is.</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy adminisztrátori felhasználóval (admin@example.com:adminpass) történő sikeres bejelentkezés után, a /shoe-controllerURL cím közvetlen beírásával elérhető-e a Cipők Kezelése adminisztrációs panel.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a weboldal bejelentkezési oldalára. 3. Az email vagy felhasználónév mezőbe írd be:admin@example.com 4. A jelszó mezőbe írd be:adminpass 5. Kattints a "Bejelentkezés" gombra. 6. Ellenőrizd, hogy az adminisztrátori bejelentkezés sikeres volt-e. 7. Ha a bejelentkezés sikeres volt, a böngésző címsorába írd be pontosan a következő URL-t:http://localhost:4200/shoe-controller 8. Nyomj Entert az URL betöltéséhez. 9. Figyeld meg az oldalt, ami betöltődik.</t>
+  </si>
+  <si>
+    <t>1. Az admin felhasználó sikeresen bejelentkezik. 2. A  /shoe-controllerURL-re navigálva, a **"Cipők Kezelése" adminisztrációs panel** töltődik be sikeresen. 3. Az oldalon a cipők kezeléséhez szükséges funkciók láthatók.</t>
+  </si>
+  <si>
+    <t>Admin bejelentkezés után a /shoe-controller URL beírására sikeresen betöltődött a cipőkezelő felület.</t>
+  </si>
+  <si>
+    <t>Bugreport ID-ja (Amennyiben sikertelen)</t>
+  </si>
+  <si>
+    <t>TESTCASE_BUG_01</t>
+  </si>
+  <si>
+    <t>TESTCASE_BUG_02</t>
+  </si>
+  <si>
+    <t>Bug javítva?</t>
+  </si>
+  <si>
+    <t>Igen</t>
+  </si>
+  <si>
+    <t>Sikeres volt a regisztráció. A regisztrált fiók megjelent az adatbázisban.</t>
+  </si>
+  <si>
+    <t>A rendszer a hibaüzenetet megjelenítette, és pontosan jelezte hogy mely mezők hiányosak. A regisztráció ezáltal sikertelen volt.</t>
+  </si>
+  <si>
+    <t>A rendszer a hibaüzenetet megjelenítette, pontosan jelezte az alkalmazás hogy az email cím fogalt már. A regisztráció sikertelen volt.</t>
+  </si>
+  <si>
+    <t>Sikertelen regisztráció - Jelszóban nincs speciális karakter</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a rendszer hibaüzenetet ad, ha a jelszóban nincsen speciális karakter</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra.  2. Kattints a "Regisztráció" gombra.  3. Tölts ki minden mezőt érvényesen, de a "Jelszó" mezőbe ne írj speciális karaktert. 4. Próbálj a "Regisztráció" gombra kattintani.</t>
+  </si>
+  <si>
+    <t>A rendszer nem fogja engedni a regisztrációt, a regisztráció gomb szürke marad.</t>
+  </si>
+  <si>
+    <t>A regisztráció gomb szürke maradt.</t>
+  </si>
+  <si>
+    <t>1. Hajts végre egy sikeres bejelentkezést.</t>
+  </si>
+  <si>
+    <t>A rendszer a hibaüzenetet megjelenítette, a felhasználó a bejelentkezési oldalon maradt.</t>
+  </si>
+  <si>
+    <t>A felhasználó adataival a bejelentkezés sikeres volt, a főoldalra irányított.</t>
+  </si>
+  <si>
+    <t>A bejelentkezés után átírányított minket az alkalmazás a főoldalra.</t>
+  </si>
+  <si>
+    <t>A rendszer a hibaüzenetet sikeresen megjelenítette, és a felhasználót nem engedte belépni.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,13 +1240,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <color rgb="FFF3F3F3"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +1292,18 @@
         <bgColor rgb="FF7380EC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -764,12 +1373,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -783,28 +1409,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Rossz" xfId="2" builtinId="27"/>
+    <cellStyle name="Semleges" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1116,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5905388-1A89-4080-AA43-ED2C44BC5EE1}">
-  <dimension ref="A1:J303"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="125.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1128,32 +1771,32 @@
     <col min="2" max="16384" width="35.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1806,9 @@
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1173,12 +1818,20 @@
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,20 +1841,26 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,22 +1870,28 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1234,979 +1899,1576 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="237" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="375" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="345" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="390" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2216,7 +3478,8 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2226,7 +3489,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4606,26 +5869,6 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
-      <c r="H302" s="1"/>
-      <c r="I302" s="1"/>
-      <c r="J302" s="1"/>
-    </row>
-    <row r="303" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
-      <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
-      <c r="J303" s="1"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D6">
     <sortCondition ref="D6"/>
